--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12815" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9564" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="原始数据" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="筛选数据" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="未筛选数据" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -19,16 +20,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -54,30 +48,16 @@
       <sz val="9"/>
     </font>
     <font>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="9"/>
-    </font>
-    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -92,21 +72,22 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -124,6 +105,22 @@
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,17 +156,8 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -184,15 +172,15 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -213,6 +201,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF47A1A1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -225,25 +219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,19 +255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,13 +279,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,13 +363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,67 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +399,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -444,15 +433,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -464,30 +444,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,9 +465,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,60 +524,61 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
@@ -595,139 +587,132 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1122,833 +1107,833 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col width="30" customWidth="1" style="6" min="1" max="1"/>
-    <col width="12.75" customWidth="1" style="6" min="2" max="2"/>
-    <col width="25.5" customWidth="1" style="6" min="3" max="3"/>
-    <col width="5" customWidth="1" style="6" min="4" max="4"/>
-    <col width="35.5" customWidth="1" style="6" min="5" max="5"/>
-    <col width="9" customWidth="1" style="6" min="6" max="10"/>
-    <col width="9" customWidth="1" style="7" min="11" max="11"/>
-    <col width="9" customWidth="1" style="6" min="12" max="16384"/>
+    <col width="30" customWidth="1" style="7" min="1" max="1"/>
+    <col width="12.75" customWidth="1" style="7" min="2" max="2"/>
+    <col width="25.5" customWidth="1" style="7" min="3" max="3"/>
+    <col width="5" customWidth="1" style="7" min="4" max="4"/>
+    <col width="35.5" customWidth="1" style="7" min="5" max="5"/>
+    <col width="9" customWidth="1" style="7" min="6" max="10"/>
+    <col width="9" customWidth="1" style="8" min="11" max="11"/>
+    <col width="9" customWidth="1" style="7" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>规格</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>厂家</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">单位 </t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>代理区域</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>客户分类</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="12" t="inlineStr">
         <is>
           <t>负责人</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="12" t="inlineStr">
         <is>
           <t>单价</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="12" t="inlineStr">
         <is>
           <t>报价</t>
         </is>
       </c>
-      <c r="J1" s="11" t="inlineStr">
+      <c r="J1" s="12" t="inlineStr">
         <is>
           <t>限价</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="8" t="inlineStr">
         <is>
           <t>代理商</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="13" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E2" s="13" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>秀屿</t>
         </is>
       </c>
-      <c r="G2" s="11" t="inlineStr">
+      <c r="G2" s="12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="11" t="n">
+      <c r="I2" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="11" t="n">
+      <c r="J2" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="inlineStr">
+      <c r="K2" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="13" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="13" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="D3" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
+      <c r="D3" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E3" s="13" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G3" s="11" t="inlineStr">
+      <c r="G3" s="12" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="11" t="n">
+      <c r="J3" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="7" t="inlineStr">
+      <c r="K3" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="A4" s="13" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E4" s="13" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>附属</t>
         </is>
       </c>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="G4" s="12" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="H4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="11" t="n">
+      <c r="J4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="7" t="inlineStr">
+      <c r="K4" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="13" t="inlineStr">
         <is>
           <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>10ml:10mg*5支</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr">
+      <c r="G5" s="12" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="K5" s="7" t="inlineStr">
+      <c r="K5" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="13" t="inlineStr">
         <is>
           <t>复方蚂蚁胶囊</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="13" t="inlineStr">
         <is>
           <t>0.25g*36粒</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="13" t="inlineStr">
         <is>
           <t>福建延年药业有限公司</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E6" s="14" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E6" s="15" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G6" s="11" t="inlineStr">
+      <c r="G6" s="12" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="K6" s="7" t="inlineStr">
+      <c r="K6" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
+      <c r="A7" s="13" t="inlineStr">
         <is>
           <t>生脉颗粒</t>
         </is>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="13" t="inlineStr">
         <is>
           <t>5g/袋*12袋/盒</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" s="13" t="inlineStr">
         <is>
           <t>河北百善药业有限公司</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E7" s="12" t="inlineStr">
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
         <is>
           <t>附属</t>
         </is>
       </c>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="G7" s="12" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="K7" s="7" t="inlineStr">
+      <c r="K7" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="inlineStr">
+      <c r="A8" s="13" t="inlineStr">
         <is>
           <t>奥美拉唑肠溶片</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>20mg*28s</t>
         </is>
       </c>
-      <c r="C8" s="12" t="inlineStr">
+      <c r="C8" s="13" t="inlineStr">
         <is>
           <t>北京太洋药业股份有限公司</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E8" s="14" t="inlineStr">
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F8" s="12" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G8" s="11" t="inlineStr">
+      <c r="G8" s="12" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="J8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="K8" s="7" t="inlineStr">
+      <c r="K8" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="inlineStr">
+      <c r="A9" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B9" s="12" t="inlineStr">
+      <c r="B9" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C9" s="12" t="inlineStr">
+      <c r="C9" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E9" s="14" t="inlineStr">
+      <c r="D9" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>莆田市涵江区涵东涵西街道社区卫生服务中心</t>
         </is>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F9" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G9" s="11" t="inlineStr">
+      <c r="G9" s="12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K9" s="7" t="inlineStr">
+      <c r="K9" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="inlineStr">
+      <c r="A10" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C10" s="12" t="inlineStr">
+      <c r="C10" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E10" s="14" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>莆田市秀屿区东庄镇卫生院</t>
         </is>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F10" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G10" s="11" t="inlineStr">
+      <c r="G10" s="12" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J10" s="11" t="n">
+      <c r="J10" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K10" s="15" t="inlineStr">
+      <c r="K10" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="inlineStr">
+      <c r="A11" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B11" s="12" t="inlineStr">
+      <c r="B11" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C11" s="12" t="inlineStr">
+      <c r="C11" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D11" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E11" s="14" t="inlineStr">
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
         <is>
           <t>莆田市秀屿区平海镇卫生院</t>
         </is>
       </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="F11" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G11" s="11" t="inlineStr">
+      <c r="G11" s="12" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K11" s="15" t="inlineStr">
+      <c r="K11" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="inlineStr">
+      <c r="A12" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B12" s="12" t="inlineStr">
+      <c r="B12" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C12" s="12" t="inlineStr">
+      <c r="C12" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E12" s="14" t="inlineStr">
+      <c r="D12" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>仙游县郊尾镇卫生院</t>
         </is>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G12" s="11" t="inlineStr">
+      <c r="G12" s="12" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="H12" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J12" s="11" t="n">
+      <c r="J12" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K12" s="15" t="inlineStr">
+      <c r="K12" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="inlineStr">
+      <c r="A13" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="B13" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C13" s="12" t="inlineStr">
+      <c r="C13" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E13" s="14" t="inlineStr">
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
         <is>
           <t>仙游县鲤南镇卫生院</t>
         </is>
       </c>
-      <c r="F13" s="11" t="inlineStr">
+      <c r="F13" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G13" s="11" t="inlineStr">
+      <c r="G13" s="12" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K13" s="15" t="inlineStr">
+      <c r="K13" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="inlineStr">
+      <c r="A14" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="B14" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C14" s="12" t="inlineStr">
+      <c r="C14" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E14" s="14" t="inlineStr">
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>仙游县大济镇卫生院</t>
         </is>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F14" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G14" s="11" t="inlineStr">
+      <c r="G14" s="12" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="I14" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J14" s="11" t="n">
+      <c r="J14" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K14" s="15" t="inlineStr">
+      <c r="K14" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="inlineStr">
+      <c r="A15" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B15" s="12" t="inlineStr">
+      <c r="B15" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C15" s="12" t="inlineStr">
+      <c r="C15" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D15" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E15" s="14" t="inlineStr">
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>莆田市湄洲湾北岸经济开发区忠门镇中心卫生院</t>
         </is>
       </c>
-      <c r="F15" s="11" t="inlineStr">
+      <c r="F15" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G15" s="11" t="inlineStr">
+      <c r="G15" s="12" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="15" t="inlineStr">
+      <c r="K15" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="inlineStr">
+      <c r="A16" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B16" s="12" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C16" s="12" t="inlineStr">
+      <c r="C16" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E16" s="14" t="inlineStr">
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E16" s="15" t="inlineStr">
         <is>
           <t>莆田学院附属医院湄洲岛分院</t>
         </is>
       </c>
-      <c r="F16" s="11" t="inlineStr">
+      <c r="F16" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G16" s="11" t="inlineStr">
+      <c r="G16" s="12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I16" s="11" t="n">
+      <c r="I16" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J16" s="11" t="n">
+      <c r="J16" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K16" s="15" t="inlineStr">
+      <c r="K16" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1968,8 +1953,8 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1979,56 +1964,56 @@
     <col width="14.75" customWidth="1" min="4" max="4"/>
     <col width="29.6296296296296" customWidth="1" min="6" max="7"/>
     <col width="5.5" customWidth="1" min="8" max="8"/>
-    <col width="10.5" customWidth="1" min="10" max="10"/>
+    <col width="11.5555555555556" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>子公司</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>货品名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>货品规格</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>货品单位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>生产厂家</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>客户名称</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>批号</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>效期</t>
         </is>
@@ -2040,45 +2025,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="4" t="n">
         <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>1234</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J2" s="6" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2086,45 +2069,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="4" t="n">
         <v>300</v>
       </c>
       <c r="I3" t="n">
         <v>1234</v>
       </c>
-      <c r="J3" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J3" s="6" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2132,45 +2113,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>2017-06-16</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="4" t="n">
         <v>150</v>
       </c>
       <c r="I4" t="n">
         <v>1234</v>
       </c>
-      <c r="J4" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J4" s="6" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2178,45 +2157,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>2017-06-16</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="4" t="n">
         <v>10</v>
       </c>
       <c r="I5" t="n">
         <v>1234</v>
       </c>
-      <c r="J5" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2224,45 +2201,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>2017-06-21</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="4" t="n">
         <v>900</v>
       </c>
       <c r="I6" t="n">
         <v>1234</v>
       </c>
-      <c r="J6" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J6" s="6" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2270,45 +2245,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>2017-06-21</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="4" t="n">
         <v>140</v>
       </c>
       <c r="I7" t="n">
         <v>1234</v>
       </c>
-      <c r="J7" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2316,45 +2289,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>2017-06-21</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="4" t="n">
         <v>30</v>
       </c>
       <c r="I8" t="n">
         <v>1234</v>
       </c>
-      <c r="J8" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2362,45 +2333,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>2017-06-26</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>莆田市荔城区中山大药房</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="4" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>1234</v>
       </c>
-      <c r="J9" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2408,45 +2377,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>2017-06-28</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="4" t="n">
         <v>300</v>
       </c>
       <c r="I10" t="n">
         <v>1234</v>
       </c>
-      <c r="J10" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2454,45 +2421,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>2017-06-07</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>10ml:10mg*5支</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="4" t="n">
         <v>30</v>
       </c>
       <c r="I11" t="n">
         <v>1234</v>
       </c>
-      <c r="J11" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2500,45 +2465,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>10ml:10mg*5支</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="4" t="n">
         <v>1080</v>
       </c>
       <c r="I12" t="n">
         <v>1234</v>
       </c>
-      <c r="J12" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2546,45 +2509,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>10ml:10mg*5支</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="4" t="n">
         <v>330</v>
       </c>
       <c r="I13" t="n">
         <v>1234</v>
       </c>
-      <c r="J13" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2592,45 +2553,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>2017-06-28</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>10ml:10mg*5支</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="4" t="n">
         <v>180</v>
       </c>
       <c r="I14" t="n">
         <v>1234</v>
       </c>
-      <c r="J14" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2638,45 +2597,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>2017-06-02</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>复方蚂蚁胶囊</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>0.25g*36粒</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>福建延年药业有限公司</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>福建延年药业有限公司</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="4" t="n">
         <v>200</v>
       </c>
       <c r="I15" t="n">
         <v>1234</v>
       </c>
-      <c r="J15" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2684,45 +2641,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>莆田市涵江区涵东涵西街道社区卫生服务中心</t>
         </is>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="4" t="n">
         <v>50</v>
       </c>
       <c r="I16" t="n">
         <v>1234</v>
       </c>
-      <c r="J16" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2730,45 +2685,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>莆田市涵江区涵东涵西街道社区卫生服务中心</t>
         </is>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="4" t="n">
         <v>50</v>
       </c>
       <c r="I17" t="n">
         <v>1234</v>
       </c>
-      <c r="J17" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2776,45 +2729,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="G18" s="4" t="inlineStr">
         <is>
           <t>莆田市秀屿区东庄镇卫生院</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="4" t="n">
         <v>100</v>
       </c>
       <c r="I18" t="n">
         <v>1234</v>
       </c>
-      <c r="J18" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2822,597 +2773,571 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>莆田市秀屿区平海镇卫生院</t>
         </is>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="4" t="n">
         <v>200</v>
       </c>
       <c r="I19" t="n">
         <v>1234</v>
       </c>
-      <c r="J19" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>2017-06-05</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>仙游县郊尾镇卫生院</t>
         </is>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="4" t="n">
         <v>20</v>
       </c>
       <c r="I20" t="n">
         <v>1234</v>
       </c>
-      <c r="J20" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>仙游县鲤南镇卫生院</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="4" t="n">
         <v>50</v>
       </c>
       <c r="I21" t="n">
         <v>1234</v>
       </c>
-      <c r="J21" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>2017-06-07</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>仙游县大济镇卫生院</t>
         </is>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="4" t="n">
         <v>30</v>
       </c>
       <c r="I22" t="n">
         <v>1234</v>
       </c>
-      <c r="J22" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>2017-06-07</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>莆田市湄洲湾北岸经济开发区忠门镇中心卫生院</t>
         </is>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="4" t="n">
         <v>50</v>
       </c>
       <c r="I23" t="n">
         <v>1234</v>
       </c>
-      <c r="J23" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>2017-06-08</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>莆田学院附属医院湄洲岛分院</t>
         </is>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="4" t="n">
         <v>50</v>
       </c>
       <c r="I24" t="n">
         <v>1234</v>
       </c>
-      <c r="J24" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="4" t="n">
         <v>1040</v>
       </c>
       <c r="I25" t="n">
         <v>1234</v>
       </c>
-      <c r="J25" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>莆田市秀屿区南日镇卫生院</t>
         </is>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="4" t="n">
         <v>50</v>
       </c>
       <c r="I26" t="n">
         <v>1234</v>
       </c>
-      <c r="J26" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="4" t="n">
         <v>108</v>
       </c>
       <c r="I27" t="n">
         <v>1234</v>
       </c>
-      <c r="J27" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="4" t="n">
         <v>167</v>
       </c>
       <c r="I28" t="n">
         <v>1234</v>
       </c>
-      <c r="J28" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="4" t="n">
         <v>873</v>
       </c>
       <c r="I29" t="n">
         <v>1234</v>
       </c>
-      <c r="J29" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="4" t="n">
         <v>-167</v>
       </c>
       <c r="I30" t="n">
         <v>1234</v>
       </c>
-      <c r="J30" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="4" t="n">
         <v>-108</v>
       </c>
       <c r="I31" t="n">
         <v>1234</v>
       </c>
-      <c r="J31" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J31" s="6" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3420,45 +3345,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="4" t="n">
         <v>-873</v>
       </c>
       <c r="I32" t="n">
         <v>1234</v>
       </c>
-      <c r="J32" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3466,45 +3389,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>仙游县盖尾镇卫生院</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="4" t="n">
         <v>50</v>
       </c>
       <c r="I33" t="n">
         <v>1234</v>
       </c>
-      <c r="J33" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3512,45 +3433,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>2017-06-16</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="G34" s="4" t="inlineStr">
         <is>
           <t>莆田市荔城区新度镇卫生院</t>
         </is>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="4" t="n">
         <v>30</v>
       </c>
       <c r="I34" t="n">
         <v>1234</v>
       </c>
-      <c r="J34" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3558,45 +3477,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>2017-06-22</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="G35" s="4" t="inlineStr">
         <is>
           <t>仙游县大济镇卫生院</t>
         </is>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="4" t="n">
         <v>50</v>
       </c>
       <c r="I35" t="n">
         <v>1234</v>
       </c>
-      <c r="J35" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3604,45 +3521,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>2017-06-23</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="G36" s="4" t="inlineStr">
         <is>
           <t>莆田市湄洲湾北岸经济开发区忠门镇中心卫生院</t>
         </is>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="4" t="n">
         <v>50</v>
       </c>
       <c r="I36" t="n">
         <v>1234</v>
       </c>
-      <c r="J36" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3650,45 +3565,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>2017-06-26</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
+      <c r="G37" s="4" t="inlineStr">
         <is>
           <t>仙游县郊尾镇卫生院</t>
         </is>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="4" t="n">
         <v>20</v>
       </c>
       <c r="I37" t="n">
         <v>1234</v>
       </c>
-      <c r="J37" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3696,45 +3609,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="G38" s="4" t="inlineStr">
         <is>
           <t>莆田市涵江区翁记药行</t>
         </is>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="4" t="n">
         <v>10</v>
       </c>
       <c r="I38" t="n">
         <v>1234</v>
       </c>
-      <c r="J38" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3742,45 +3653,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>2017-06-02</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>莆田鹭燕大药房有限公司荔能店</t>
         </is>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="4" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>1234</v>
       </c>
-      <c r="J39" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J39" s="6" t="n"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3788,45 +3697,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>2017-06-03</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
+      <c r="G40" s="4" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="4" t="n">
         <v>1000</v>
       </c>
       <c r="I40" t="n">
         <v>1234</v>
       </c>
-      <c r="J40" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J40" s="6" t="n"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3834,45 +3741,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>2017-06-05</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>莆田鹭燕大药房有限公司儿童医院店</t>
         </is>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="4" t="n">
         <v>10</v>
       </c>
       <c r="I41" t="n">
         <v>1234</v>
       </c>
-      <c r="J41" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J41" s="6" t="n"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3880,45 +3785,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>2017-06-05</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="G42" s="4" t="inlineStr">
         <is>
           <t>莆田市秀屿区益丰大药房有限公司</t>
         </is>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="4" t="n">
         <v>5</v>
       </c>
       <c r="I42" t="n">
         <v>1234</v>
       </c>
-      <c r="J42" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J42" s="6" t="n"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3926,45 +3829,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
+      <c r="G43" s="4" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="4" t="n">
         <v>50</v>
       </c>
       <c r="I43" t="n">
         <v>1234</v>
       </c>
-      <c r="J43" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J43" s="6" t="n"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3972,45 +3873,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="G44" s="4" t="inlineStr">
         <is>
           <t>福建省仙游县医院</t>
         </is>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="4" t="n">
         <v>400</v>
       </c>
       <c r="I44" t="n">
         <v>1234</v>
       </c>
-      <c r="J44" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4018,45 +3917,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G45" s="2" t="inlineStr">
+      <c r="G45" s="4" t="inlineStr">
         <is>
           <t>仙游县鲤南镇卫生院</t>
         </is>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="4" t="n">
         <v>100</v>
       </c>
       <c r="I45" t="n">
         <v>1234</v>
       </c>
-      <c r="J45" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J45" s="6" t="n"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4064,45 +3961,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="G46" s="4" t="inlineStr">
         <is>
           <t>莆田鹭燕大药房有限公司仙游店</t>
         </is>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>1234</v>
       </c>
-      <c r="J46" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J46" s="6" t="n"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4110,275 +4005,263 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>2017-06-08</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G47" s="2" t="inlineStr">
+      <c r="G47" s="4" t="inlineStr">
         <is>
           <t>莆田市涵江区江口镇德信堂医药有限公司</t>
         </is>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="4" t="n">
         <v>20</v>
       </c>
       <c r="I47" t="n">
         <v>1234</v>
       </c>
-      <c r="J47" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J47" s="6" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>2017-06-10</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="G48" s="4" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="4" t="n">
         <v>800</v>
       </c>
       <c r="I48" t="n">
         <v>1234</v>
       </c>
-      <c r="J48" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J48" s="6" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>2017-06-10</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="G49" s="4" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="4" t="n">
         <v>250</v>
       </c>
       <c r="I49" t="n">
         <v>1234</v>
       </c>
-      <c r="J49" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J49" s="6" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>2017-06-10</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="G50" s="4" t="inlineStr">
         <is>
           <t>福建省仙游县医院</t>
         </is>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="4" t="n">
         <v>200</v>
       </c>
       <c r="I50" t="n">
         <v>1234</v>
       </c>
-      <c r="J50" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J50" s="6" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>2017-06-10</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
+      <c r="G51" s="4" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="4" t="n">
         <v>10000</v>
       </c>
       <c r="I51" t="n">
         <v>1234</v>
       </c>
-      <c r="J51" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J51" s="6" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>惠好</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="G52" s="4" t="inlineStr">
         <is>
           <t>莆田市荔城区安康药店</t>
         </is>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="4" t="n">
         <v>10</v>
       </c>
       <c r="I52" t="n">
         <v>1234</v>
       </c>
-      <c r="J52" s="5" t="n">
-        <v>44425</v>
-      </c>
+      <c r="J52" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4394,59 +4277,59 @@
   </sheetPr>
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>子公司</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>货品名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>货品规格</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>货品单位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>生产厂家</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>客户名称</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>批号</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>效期</t>
         </is>
@@ -4491,7 +4374,7 @@
           <t>销售额（限价）</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>代理商</t>
         </is>
@@ -4517,97 +4400,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="inlineStr">
+      <c r="A1" s="16" t="inlineStr">
         <is>
           <t>子公司</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="16" t="inlineStr">
         <is>
           <t>货品名称</t>
         </is>
       </c>
-      <c r="D1" s="18" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>货品规格</t>
         </is>
       </c>
-      <c r="E1" s="18" t="inlineStr">
+      <c r="E1" s="16" t="inlineStr">
         <is>
           <t>货品单位</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="F1" s="16" t="inlineStr">
         <is>
           <t>生产厂家</t>
         </is>
       </c>
-      <c r="G1" s="18" t="inlineStr">
+      <c r="G1" s="16" t="inlineStr">
         <is>
           <t>客户名称</t>
         </is>
       </c>
-      <c r="H1" s="18" t="inlineStr">
+      <c r="H1" s="16" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="I1" s="18" t="inlineStr">
+      <c r="I1" s="16" t="inlineStr">
         <is>
           <t>批号</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="16" t="inlineStr">
         <is>
           <t>效期</t>
         </is>
       </c>
-      <c r="K1" s="18" t="inlineStr">
+      <c r="K1" s="16" t="inlineStr">
         <is>
           <t>客户分类</t>
         </is>
       </c>
-      <c r="L1" s="18" t="inlineStr">
+      <c r="L1" s="16" t="inlineStr">
         <is>
           <t>负责人</t>
         </is>
       </c>
-      <c r="M1" s="18" t="inlineStr">
+      <c r="M1" s="16" t="inlineStr">
         <is>
           <t>单价</t>
         </is>
       </c>
-      <c r="N1" s="18" t="inlineStr">
+      <c r="N1" s="16" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="O1" s="18" t="inlineStr">
+      <c r="O1" s="16" t="inlineStr">
         <is>
           <t>报价</t>
         </is>
       </c>
-      <c r="P1" s="18" t="inlineStr">
+      <c r="P1" s="16" t="inlineStr">
         <is>
           <t>销售额（报价）</t>
         </is>
       </c>
-      <c r="Q1" s="18" t="inlineStr">
+      <c r="Q1" s="16" t="inlineStr">
         <is>
           <t>限价</t>
         </is>
       </c>
-      <c r="R1" s="18" t="inlineStr">
+      <c r="R1" s="16" t="inlineStr">
         <is>
           <t>销售额（限价）</t>
         </is>
       </c>
-      <c r="S1" s="18" t="inlineStr">
+      <c r="S1" s="16" t="inlineStr">
         <is>
           <t>代理商</t>
         </is>
@@ -4655,9 +4538,6 @@
       <c r="I2" t="n">
         <v>1234</v>
       </c>
-      <c r="J2" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>秀屿</t>
@@ -4734,9 +4614,6 @@
       <c r="I3" t="n">
         <v>1234</v>
       </c>
-      <c r="J3" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>市一</t>
@@ -4813,9 +4690,6 @@
       <c r="I4" t="n">
         <v>1234</v>
       </c>
-      <c r="J4" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>附属</t>
@@ -4892,9 +4766,6 @@
       <c r="I5" t="n">
         <v>1234</v>
       </c>
-      <c r="J5" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>附属</t>
@@ -4971,9 +4842,6 @@
       <c r="I6" t="n">
         <v>1234</v>
       </c>
-      <c r="J6" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>附属</t>
@@ -5050,9 +4918,6 @@
       <c r="I7" t="n">
         <v>1234</v>
       </c>
-      <c r="J7" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>秀屿</t>
@@ -5129,9 +4994,6 @@
       <c r="I8" t="n">
         <v>1234</v>
       </c>
-      <c r="J8" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>市一</t>
@@ -5208,9 +5070,6 @@
       <c r="I9" t="n">
         <v>1234</v>
       </c>
-      <c r="J9" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>市一</t>
@@ -5287,9 +5146,6 @@
       <c r="I10" t="n">
         <v>1234</v>
       </c>
-      <c r="J10" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>基层</t>
@@ -5366,9 +5222,6 @@
       <c r="I11" t="n">
         <v>1234</v>
       </c>
-      <c r="J11" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>基层</t>
@@ -5445,9 +5298,6 @@
       <c r="I12" t="n">
         <v>1234</v>
       </c>
-      <c r="J12" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>基层</t>
@@ -5524,9 +5374,6 @@
       <c r="I13" t="n">
         <v>1234</v>
       </c>
-      <c r="J13" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>基层</t>
@@ -5603,9 +5450,6 @@
       <c r="I14" t="n">
         <v>1234</v>
       </c>
-      <c r="J14" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>基层</t>
@@ -5682,9 +5526,6 @@
       <c r="I15" t="n">
         <v>1234</v>
       </c>
-      <c r="J15" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>基层</t>
@@ -5761,9 +5602,6 @@
       <c r="I16" t="n">
         <v>1234</v>
       </c>
-      <c r="J16" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>基层</t>
@@ -5840,9 +5678,6 @@
       <c r="I17" t="n">
         <v>1234</v>
       </c>
-      <c r="J17" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>基层</t>
@@ -5919,9 +5754,6 @@
       <c r="I18" t="n">
         <v>1234</v>
       </c>
-      <c r="J18" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>基层</t>
@@ -5998,9 +5830,6 @@
       <c r="I19" t="n">
         <v>1234</v>
       </c>
-      <c r="J19" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>基层</t>
@@ -6077,9 +5906,6 @@
       <c r="I20" t="n">
         <v>1234</v>
       </c>
-      <c r="J20" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>基层</t>
@@ -6156,9 +5982,6 @@
       <c r="I21" t="n">
         <v>1234</v>
       </c>
-      <c r="J21" s="16" t="n">
-        <v>44425</v>
-      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>基层</t>
@@ -6191,6 +6014,1358 @@
         <is>
           <t>B</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2017-06-21</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>复方太子参颗粒</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>5g*10袋</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>福建省闽东力捷迅药业有限公司</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>福建省闽东力捷迅药业有限公司</t>
+        </is>
+      </c>
+      <c r="H1" t="n">
+        <v>900</v>
+      </c>
+      <c r="I1" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2017-06-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>复方太子参颗粒</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5g*10袋</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>福建省闽东力捷迅药业有限公司</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>莆田市荔城区中山大药房</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2017-06-07</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>盐酸西替利嗪口服溶液</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10ml:10mg*5支</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>广州康臣药业有限公司</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2017-06-12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>盐酸西替利嗪口服溶液</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10ml:10mg*5支</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>广州康臣药业有限公司</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>广州康臣药业有限公司</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1080</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2017-06-12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>盐酸西替利嗪口服溶液</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10ml:10mg*5支</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>广州康臣药业有限公司</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>330</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2017-06-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>复方蚂蚁胶囊</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25g*36粒</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>福建延年药业有限公司</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>福建延年药业有限公司</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>200</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2017-06-12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银杏蜜环口服溶液</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10ml*12支</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>邛崃天银制药有限公司</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>莆田市第一医院</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1040</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2017-06-12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银杏蜜环口服溶液</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10ml*12支</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>邛崃天银制药有限公司</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2017-06-13</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银杏蜜环口服溶液</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10ml*12支</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>邛崃天银制药有限公司</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>莆田市第一医院</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>108</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2017-06-13</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银杏蜜环口服溶液</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10ml*12支</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>邛崃天银制药有限公司</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>莆田市第一医院</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>167</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2017-06-13</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银杏蜜环口服溶液</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10ml*12支</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>邛崃天银制药有限公司</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>莆田市第一医院</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>873</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2017-06-13</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银杏蜜环口服溶液</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10ml*12支</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>邛崃天银制药有限公司</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>莆田市第一医院</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>-167</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2017-06-13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银杏蜜环口服溶液</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10ml*12支</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>邛崃天银制药有限公司</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>莆田市第一医院</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>-108</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2017-06-13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银杏蜜环口服溶液</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10ml*12支</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>邛崃天银制药有限公司</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>莆田市第一医院</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>-873</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2017-06-13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银杏蜜环口服溶液</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10ml*12支</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>邛崃天银制药有限公司</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>仙游县盖尾镇卫生院</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2017-06-16</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银杏蜜环口服溶液</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10ml*12支</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>邛崃天银制药有限公司</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>莆田市荔城区新度镇卫生院</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2017-06-01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>莆田市涵江区翁记药行</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2017-06-02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>莆田鹭燕大药房有限公司荔能店</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2017-06-03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2017-06-05</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>莆田鹭燕大药房有限公司儿童医院店</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2017-06-05</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区益丰大药房有限公司</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2017-06-06</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>50</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2017-06-06</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>福建省仙游县医院</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2017-06-06</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>仙游县鲤南镇卫生院</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2017-06-06</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>莆田鹭燕大药房有限公司仙游店</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>鹭燕</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2017-06-08</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>莆田市涵江区江口镇德信堂医药有限公司</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2017-06-10</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>莆田市第一医院</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>800</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2017-06-10</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>250</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2017-06-10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>福建省仙游县医院</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>200</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2017-06-10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2017-06-12</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>莆田市荔城区安康药店</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9564" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="12671" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="原始数据" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="筛选数据" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="未筛选数据" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="相似名称" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="筛选数据" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="未筛选数据" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -19,9 +20,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="23">
     <font>
       <name val="等线"/>
@@ -50,6 +49,13 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -57,37 +63,45 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -102,17 +116,9 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,7 +132,23 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -141,39 +163,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -187,12 +177,21 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill/>
     </fill>
@@ -219,19 +218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +236,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,19 +260,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,25 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,49 +404,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="0047A1A1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047A1A1"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -433,17 +437,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,13 +461,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,24 +487,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,16 +514,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -548,127 +552,106 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
@@ -677,11 +660,31 @@
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -711,6 +714,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1105,835 +1111,835 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
-    <col width="30" customWidth="1" style="7" min="1" max="1"/>
-    <col width="12.75" customWidth="1" style="7" min="2" max="2"/>
-    <col width="25.5" customWidth="1" style="7" min="3" max="3"/>
-    <col width="5" customWidth="1" style="7" min="4" max="4"/>
-    <col width="35.5" customWidth="1" style="7" min="5" max="5"/>
-    <col width="9" customWidth="1" style="7" min="6" max="10"/>
-    <col width="9" customWidth="1" style="8" min="11" max="11"/>
-    <col width="9" customWidth="1" style="7" min="12" max="16384"/>
+    <col width="30" customWidth="1" style="6" min="1" max="1"/>
+    <col width="12.75" customWidth="1" style="6" min="2" max="2"/>
+    <col width="25.5" customWidth="1" style="6" min="3" max="3"/>
+    <col width="5" customWidth="1" style="6" min="4" max="4"/>
+    <col width="35.5" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9" customWidth="1" style="6" min="6" max="10"/>
+    <col width="9" customWidth="1" style="7" min="11" max="11"/>
+    <col width="9" customWidth="1" style="6" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>规格</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>厂家</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">单位 </t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>代理区域</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>客户分类</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>负责人</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>单价</t>
         </is>
       </c>
-      <c r="I1" s="12" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>报价</t>
         </is>
       </c>
-      <c r="J1" s="12" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>限价</t>
         </is>
       </c>
-      <c r="K1" s="8" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>代理商</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="inlineStr">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E2" s="13" t="inlineStr">
+      <c r="D2" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="F2" s="12" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>秀屿</t>
         </is>
       </c>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H2" s="12" t="n">
+      <c r="H2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="12" t="n">
+      <c r="I2" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="12" t="n">
+      <c r="J2" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="K2" s="8" t="inlineStr">
+      <c r="K2" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="C3" s="13" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="D3" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E3" s="13" t="inlineStr">
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F3" s="12" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="G3" s="11" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="A4" s="12" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" s="12" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E4" s="13" t="inlineStr">
+      <c r="D4" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>附属</t>
         </is>
       </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="12" t="n">
+      <c r="J4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="8" t="inlineStr">
+      <c r="K4" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>10ml:10mg*5支</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F5" s="12" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="G5" s="11" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="K5" s="8" t="inlineStr">
+      <c r="K5" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="A6" s="12" t="inlineStr">
         <is>
           <t>复方蚂蚁胶囊</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>0.25g*36粒</t>
         </is>
       </c>
-      <c r="C6" s="13" t="inlineStr">
+      <c r="C6" s="12" t="inlineStr">
         <is>
           <t>福建延年药业有限公司</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E6" s="15" t="inlineStr">
+      <c r="D6" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E6" s="14" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F6" s="12" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G6" s="12" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="12" t="n">
+      <c r="J6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="K6" s="8" t="inlineStr">
+      <c r="K6" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="13" t="inlineStr">
+      <c r="A7" s="12" t="inlineStr">
         <is>
           <t>生脉颗粒</t>
         </is>
       </c>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>5g/袋*12袋/盒</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr">
+      <c r="C7" s="12" t="inlineStr">
         <is>
           <t>河北百善药业有限公司</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E7" s="13" t="inlineStr">
+      <c r="D7" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>附属</t>
         </is>
       </c>
-      <c r="G7" s="12" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="K7" s="8" t="inlineStr">
+      <c r="K7" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>奥美拉唑肠溶片</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>20mg*28s</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="C8" s="12" t="inlineStr">
         <is>
           <t>北京太洋药业股份有限公司</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E8" s="15" t="inlineStr">
+      <c r="D8" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E8" s="14" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="F8" s="11" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G8" s="12" t="inlineStr">
+      <c r="G8" s="11" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="K8" s="8" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="inlineStr">
+      <c r="A9" s="12" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C9" s="13" t="inlineStr">
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D9" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E9" s="15" t="inlineStr">
+      <c r="D9" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E9" s="14" t="inlineStr">
         <is>
           <t>莆田市涵江区涵东涵西街道社区卫生服务中心</t>
         </is>
       </c>
-      <c r="F9" s="12" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G9" s="12" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="12" t="n">
+      <c r="J9" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="K9" s="8" t="inlineStr">
+      <c r="K9" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="inlineStr">
+      <c r="A10" s="12" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B10" s="13" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="C10" s="12" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D10" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E10" s="15" t="inlineStr">
+      <c r="D10" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E10" s="14" t="inlineStr">
         <is>
           <t>莆田市秀屿区东庄镇卫生院</t>
         </is>
       </c>
-      <c r="F10" s="12" t="inlineStr">
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G10" s="12" t="inlineStr">
+      <c r="G10" s="11" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="J10" s="12" t="n">
+      <c r="J10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="K10" s="8" t="inlineStr">
+      <c r="K10" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="inlineStr">
+      <c r="A11" s="12" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B11" s="13" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C11" s="13" t="inlineStr">
+      <c r="C11" s="12" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D11" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E11" s="15" t="inlineStr">
+      <c r="D11" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E11" s="14" t="inlineStr">
         <is>
           <t>莆田市秀屿区平海镇卫生院</t>
         </is>
       </c>
-      <c r="F11" s="12" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G11" s="12" t="inlineStr">
+      <c r="G11" s="11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="J11" s="12" t="n">
+      <c r="J11" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="K11" s="8" t="inlineStr">
+      <c r="K11" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="inlineStr">
+      <c r="A12" s="12" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B12" s="13" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C12" s="13" t="inlineStr">
+      <c r="C12" s="12" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D12" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E12" s="15" t="inlineStr">
+      <c r="D12" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E12" s="14" t="inlineStr">
         <is>
           <t>仙游县郊尾镇卫生院</t>
         </is>
       </c>
-      <c r="F12" s="12" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G12" s="12" t="inlineStr">
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H12" s="12" t="n">
+      <c r="H12" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="J12" s="12" t="n">
+      <c r="J12" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="K12" s="8" t="inlineStr">
+      <c r="K12" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="inlineStr">
+      <c r="A13" s="12" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B13" s="13" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C13" s="13" t="inlineStr">
+      <c r="C13" s="12" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D13" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E13" s="15" t="inlineStr">
+      <c r="D13" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E13" s="14" t="inlineStr">
         <is>
           <t>仙游县鲤南镇卫生院</t>
         </is>
       </c>
-      <c r="F13" s="12" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G13" s="12" t="inlineStr">
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="J13" s="12" t="n">
+      <c r="J13" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="K13" s="8" t="inlineStr">
+      <c r="K13" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B14" s="13" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C14" s="13" t="inlineStr">
+      <c r="C14" s="12" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E14" s="15" t="inlineStr">
+      <c r="D14" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E14" s="14" t="inlineStr">
         <is>
           <t>仙游县大济镇卫生院</t>
         </is>
       </c>
-      <c r="F14" s="12" t="inlineStr">
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G14" s="12" t="inlineStr">
+      <c r="G14" s="11" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="I14" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="J14" s="12" t="n">
+      <c r="J14" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="K14" s="8" t="inlineStr">
+      <c r="K14" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="inlineStr">
+      <c r="A15" s="12" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B15" s="13" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C15" s="13" t="inlineStr">
+      <c r="C15" s="12" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E15" s="15" t="inlineStr">
+      <c r="D15" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E15" s="14" t="inlineStr">
         <is>
           <t>莆田市湄洲湾北岸经济开发区忠门镇中心卫生院</t>
         </is>
       </c>
-      <c r="F15" s="12" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G15" s="12" t="inlineStr">
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="I15" s="12" t="n">
+      <c r="I15" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="J15" s="12" t="n">
+      <c r="J15" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="8" t="inlineStr">
+      <c r="K15" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="inlineStr">
+      <c r="A16" s="12" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B16" s="13" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C16" s="13" t="inlineStr">
+      <c r="C16" s="12" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D16" s="14" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E16" s="15" t="inlineStr">
+      <c r="D16" s="13" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E16" s="14" t="inlineStr">
         <is>
           <t>莆田学院附属医院湄洲岛分院</t>
         </is>
       </c>
-      <c r="F16" s="12" t="inlineStr">
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G16" s="12" t="inlineStr">
+      <c r="G16" s="11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H16" s="12" t="n">
+      <c r="H16" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="I16" s="12" t="n">
+      <c r="I16" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="J16" s="12" t="n">
+      <c r="J16" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="K16" s="8" t="inlineStr">
+      <c r="K16" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1953,11 +1959,11 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
     <col width="11.6296296296296" customWidth="1" min="2" max="2"/>
     <col width="21.3796296296296" customWidth="1" min="3" max="3"/>
@@ -1968,52 +1974,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>子公司</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>货品名称</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>货品规格</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>货品单位</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>生产厂家</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>客户名称</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>批号</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>效期</t>
         </is>
@@ -2025,43 +2031,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>莆田市秀屿区医院</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院分院</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>1234</v>
       </c>
-      <c r="J2" s="6" t="n"/>
+      <c r="J2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2069,43 +2075,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="3" t="n">
         <v>300</v>
       </c>
       <c r="I3" t="n">
         <v>1234</v>
       </c>
-      <c r="J3" s="6" t="n"/>
+      <c r="J3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2113,43 +2119,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>2017-06-16</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="3" t="n">
         <v>150</v>
       </c>
       <c r="I4" t="n">
         <v>1234</v>
       </c>
-      <c r="J4" s="6" t="n"/>
+      <c r="J4" s="5" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2157,43 +2163,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>2017-06-16</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="3" t="n">
         <v>10</v>
       </c>
       <c r="I5" t="n">
         <v>1234</v>
       </c>
-      <c r="J5" s="6" t="n"/>
+      <c r="J5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2201,43 +2207,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>2017-06-21</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="3" t="n">
         <v>900</v>
       </c>
       <c r="I6" t="n">
         <v>1234</v>
       </c>
-      <c r="J6" s="6" t="n"/>
+      <c r="J6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2245,43 +2251,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>2017-06-21</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="3" t="n">
         <v>140</v>
       </c>
       <c r="I7" t="n">
         <v>1234</v>
       </c>
-      <c r="J7" s="6" t="n"/>
+      <c r="J7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2289,43 +2295,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>2017-06-21</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="3" t="n">
         <v>30</v>
       </c>
       <c r="I8" t="n">
         <v>1234</v>
       </c>
-      <c r="J8" s="6" t="n"/>
+      <c r="J8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2333,43 +2339,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>2017-06-26</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>莆田市荔城区中山大药房</t>
         </is>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="3" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>1234</v>
       </c>
-      <c r="J9" s="6" t="n"/>
+      <c r="J9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2377,43 +2383,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>2017-06-28</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="3" t="n">
         <v>300</v>
       </c>
       <c r="I10" t="n">
         <v>1234</v>
       </c>
-      <c r="J10" s="6" t="n"/>
+      <c r="J10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2421,43 +2427,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>2017-06-07</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>10ml:10mg*5支</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="15" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="3" t="n">
         <v>30</v>
       </c>
       <c r="I11" t="n">
         <v>1234</v>
       </c>
-      <c r="J11" s="6" t="n"/>
+      <c r="J11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2465,43 +2471,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>10ml:10mg*5支</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="3" t="n">
         <v>1080</v>
       </c>
       <c r="I12" t="n">
         <v>1234</v>
       </c>
-      <c r="J12" s="6" t="n"/>
+      <c r="J12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2509,43 +2515,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>10ml:10mg*5支</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="15" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="3" t="n">
         <v>330</v>
       </c>
       <c r="I13" t="n">
         <v>1234</v>
       </c>
-      <c r="J13" s="6" t="n"/>
+      <c r="J13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2553,43 +2559,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>2017-06-28</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>10ml:10mg*5支</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="3" t="n">
         <v>180</v>
       </c>
       <c r="I14" t="n">
         <v>1234</v>
       </c>
-      <c r="J14" s="6" t="n"/>
+      <c r="J14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2597,43 +2603,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>2017-06-02</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>复方蚂蚁胶囊</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>0.25g*36粒</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>福建延年药业有限公司</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>福建延年药业有限公司</t>
         </is>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="3" t="n">
         <v>200</v>
       </c>
       <c r="I15" t="n">
         <v>1234</v>
       </c>
-      <c r="J15" s="6" t="n"/>
+      <c r="J15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2641,43 +2647,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>莆田市涵江区涵东涵西街道社区卫生服务中心</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="3" t="n">
         <v>50</v>
       </c>
       <c r="I16" t="n">
         <v>1234</v>
       </c>
-      <c r="J16" s="6" t="n"/>
+      <c r="J16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2685,43 +2691,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>莆田市涵江区涵东涵西街道社区卫生服务中心</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="3" t="n">
         <v>50</v>
       </c>
       <c r="I17" t="n">
         <v>1234</v>
       </c>
-      <c r="J17" s="6" t="n"/>
+      <c r="J17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2729,43 +2735,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="15" t="inlineStr">
         <is>
           <t>莆田市秀屿区东庄镇卫生院</t>
         </is>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="3" t="n">
         <v>100</v>
       </c>
       <c r="I18" t="n">
         <v>1234</v>
       </c>
-      <c r="J18" s="6" t="n"/>
+      <c r="J18" s="5" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2773,43 +2779,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="15" t="inlineStr">
         <is>
           <t>莆田市秀屿区平海镇卫生院</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="3" t="n">
         <v>200</v>
       </c>
       <c r="I19" t="n">
         <v>1234</v>
       </c>
-      <c r="J19" s="6" t="n"/>
+      <c r="J19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2817,43 +2823,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>2017-06-05</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>仙游县郊尾镇卫生院</t>
         </is>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="3" t="n">
         <v>20</v>
       </c>
       <c r="I20" t="n">
         <v>1234</v>
       </c>
-      <c r="J20" s="6" t="n"/>
+      <c r="J20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2861,43 +2867,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="15" t="inlineStr">
         <is>
           <t>仙游县鲤南镇卫生院</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="3" t="n">
         <v>50</v>
       </c>
       <c r="I21" t="n">
         <v>1234</v>
       </c>
-      <c r="J21" s="6" t="n"/>
+      <c r="J21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2905,43 +2911,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>2017-06-07</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="15" t="inlineStr">
         <is>
           <t>仙游县大济镇卫生院</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="3" t="n">
         <v>30</v>
       </c>
       <c r="I22" t="n">
         <v>1234</v>
       </c>
-      <c r="J22" s="6" t="n"/>
+      <c r="J22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2949,43 +2955,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>2017-06-07</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>莆田市湄洲湾北岸经济开发区忠门镇中心卫生院</t>
         </is>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="3" t="n">
         <v>50</v>
       </c>
       <c r="I23" t="n">
         <v>1234</v>
       </c>
-      <c r="J23" s="6" t="n"/>
+      <c r="J23" s="5" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2993,43 +2999,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>2017-06-08</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G24" s="15" t="inlineStr">
         <is>
           <t>莆田学院附属医院湄洲岛分院</t>
         </is>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="3" t="n">
         <v>50</v>
       </c>
       <c r="I24" t="n">
         <v>1234</v>
       </c>
-      <c r="J24" s="6" t="n"/>
+      <c r="J24" s="5" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3037,43 +3043,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="3" t="n">
         <v>1040</v>
       </c>
       <c r="I25" t="n">
         <v>1234</v>
       </c>
-      <c r="J25" s="6" t="n"/>
+      <c r="J25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3081,43 +3087,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="15" t="inlineStr">
         <is>
           <t>莆田市秀屿区南日镇卫生院</t>
         </is>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="3" t="n">
         <v>50</v>
       </c>
       <c r="I26" t="n">
         <v>1234</v>
       </c>
-      <c r="J26" s="6" t="n"/>
+      <c r="J26" s="5" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3125,43 +3131,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="3" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="3" t="n">
         <v>108</v>
       </c>
       <c r="I27" t="n">
         <v>1234</v>
       </c>
-      <c r="J27" s="6" t="n"/>
+      <c r="J27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3169,43 +3175,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="3" t="n">
         <v>167</v>
       </c>
       <c r="I28" t="n">
         <v>1234</v>
       </c>
-      <c r="J28" s="6" t="n"/>
+      <c r="J28" s="5" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3213,43 +3219,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="3" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="3" t="n">
         <v>873</v>
       </c>
       <c r="I29" t="n">
         <v>1234</v>
       </c>
-      <c r="J29" s="6" t="n"/>
+      <c r="J29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3257,43 +3263,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="3" t="n">
         <v>-167</v>
       </c>
       <c r="I30" t="n">
         <v>1234</v>
       </c>
-      <c r="J30" s="6" t="n"/>
+      <c r="J30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3301,43 +3307,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="3" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="3" t="n">
         <v>-108</v>
       </c>
       <c r="I31" t="n">
         <v>1234</v>
       </c>
-      <c r="J31" s="6" t="n"/>
+      <c r="J31" s="5" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3345,43 +3351,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="3" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="3" t="n">
         <v>-873</v>
       </c>
       <c r="I32" t="n">
         <v>1234</v>
       </c>
-      <c r="J32" s="6" t="n"/>
+      <c r="J32" s="5" t="n"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3389,43 +3395,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="15" t="inlineStr">
         <is>
           <t>仙游县盖尾镇卫生院</t>
         </is>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="3" t="n">
         <v>50</v>
       </c>
       <c r="I33" t="n">
         <v>1234</v>
       </c>
-      <c r="J33" s="6" t="n"/>
+      <c r="J33" s="5" t="n"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3433,43 +3439,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>2017-06-16</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="3" t="inlineStr">
         <is>
           <t>莆田市荔城区新度镇卫生院</t>
         </is>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="3" t="n">
         <v>30</v>
       </c>
       <c r="I34" t="n">
         <v>1234</v>
       </c>
-      <c r="J34" s="6" t="n"/>
+      <c r="J34" s="5" t="n"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3477,43 +3483,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>2017-06-22</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="15" t="inlineStr">
         <is>
           <t>仙游县大济镇卫生院</t>
         </is>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H35" s="3" t="n">
         <v>50</v>
       </c>
       <c r="I35" t="n">
         <v>1234</v>
       </c>
-      <c r="J35" s="6" t="n"/>
+      <c r="J35" s="5" t="n"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3521,43 +3527,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>2017-06-23</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D36" s="4" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>莆田市湄洲湾北岸经济开发区忠门镇中心卫生院</t>
         </is>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="3" t="n">
         <v>50</v>
       </c>
       <c r="I36" t="n">
         <v>1234</v>
       </c>
-      <c r="J36" s="6" t="n"/>
+      <c r="J36" s="5" t="n"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3565,43 +3571,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>2017-06-26</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="D37" s="4" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t>仙游县郊尾镇卫生院</t>
         </is>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="3" t="n">
         <v>20</v>
       </c>
       <c r="I37" t="n">
         <v>1234</v>
       </c>
-      <c r="J37" s="6" t="n"/>
+      <c r="J37" s="5" t="n"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3609,43 +3615,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="G38" s="3" t="inlineStr">
         <is>
           <t>莆田市涵江区翁记药行</t>
         </is>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="3" t="n">
         <v>10</v>
       </c>
       <c r="I38" t="n">
         <v>1234</v>
       </c>
-      <c r="J38" s="6" t="n"/>
+      <c r="J38" s="5" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3653,43 +3659,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>2017-06-02</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="G39" s="3" t="inlineStr">
         <is>
           <t>莆田鹭燕大药房有限公司荔能店</t>
         </is>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="3" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>1234</v>
       </c>
-      <c r="J39" s="6" t="n"/>
+      <c r="J39" s="5" t="n"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3697,43 +3703,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>2017-06-03</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="G40" s="15" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="I40" t="n">
         <v>1234</v>
       </c>
-      <c r="J40" s="6" t="n"/>
+      <c r="J40" s="5" t="n"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3741,43 +3747,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>2017-06-05</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="G41" s="3" t="inlineStr">
         <is>
           <t>莆田鹭燕大药房有限公司儿童医院店</t>
         </is>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="3" t="n">
         <v>10</v>
       </c>
       <c r="I41" t="n">
         <v>1234</v>
       </c>
-      <c r="J41" s="6" t="n"/>
+      <c r="J41" s="5" t="n"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3785,43 +3791,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>2017-06-05</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="G42" s="3" t="inlineStr">
         <is>
           <t>莆田市秀屿区益丰大药房有限公司</t>
         </is>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="H42" s="3" t="n">
         <v>5</v>
       </c>
       <c r="I42" t="n">
         <v>1234</v>
       </c>
-      <c r="J42" s="6" t="n"/>
+      <c r="J42" s="5" t="n"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3829,43 +3835,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="G43" s="15" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="3" t="n">
         <v>50</v>
       </c>
       <c r="I43" t="n">
         <v>1234</v>
       </c>
-      <c r="J43" s="6" t="n"/>
+      <c r="J43" s="5" t="n"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3873,43 +3879,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D44" s="4" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="G44" s="3" t="inlineStr">
         <is>
           <t>福建省仙游县医院</t>
         </is>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="3" t="n">
         <v>400</v>
       </c>
       <c r="I44" t="n">
         <v>1234</v>
       </c>
-      <c r="J44" s="6" t="n"/>
+      <c r="J44" s="5" t="n"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3917,43 +3923,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="G45" s="15" t="inlineStr">
         <is>
           <t>仙游县鲤南镇卫生院</t>
         </is>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="3" t="n">
         <v>100</v>
       </c>
       <c r="I45" t="n">
         <v>1234</v>
       </c>
-      <c r="J45" s="6" t="n"/>
+      <c r="J45" s="5" t="n"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3961,43 +3967,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D46" s="4" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G46" s="4" t="inlineStr">
+      <c r="G46" s="3" t="inlineStr">
         <is>
           <t>莆田鹭燕大药房有限公司仙游店</t>
         </is>
       </c>
-      <c r="H46" s="4" t="n">
+      <c r="H46" s="3" t="n">
         <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>1234</v>
       </c>
-      <c r="J46" s="6" t="n"/>
+      <c r="J46" s="5" t="n"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4005,43 +4011,43 @@
           <t>鹭燕</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>2017-06-08</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D47" s="4" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="G47" s="3" t="inlineStr">
         <is>
           <t>莆田市涵江区江口镇德信堂医药有限公司</t>
         </is>
       </c>
-      <c r="H47" s="4" t="n">
+      <c r="H47" s="3" t="n">
         <v>20</v>
       </c>
       <c r="I47" t="n">
         <v>1234</v>
       </c>
-      <c r="J47" s="6" t="n"/>
+      <c r="J47" s="5" t="n"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4049,43 +4055,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>2017-06-10</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F48" s="4" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G48" s="4" t="inlineStr">
+      <c r="G48" s="3" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="H48" s="4" t="n">
+      <c r="H48" s="3" t="n">
         <v>800</v>
       </c>
       <c r="I48" t="n">
         <v>1234</v>
       </c>
-      <c r="J48" s="6" t="n"/>
+      <c r="J48" s="5" t="n"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4093,43 +4099,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>2017-06-10</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="G49" s="15" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="H49" s="4" t="n">
+      <c r="H49" s="3" t="n">
         <v>250</v>
       </c>
       <c r="I49" t="n">
         <v>1234</v>
       </c>
-      <c r="J49" s="6" t="n"/>
+      <c r="J49" s="5" t="n"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4137,43 +4143,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>2017-06-10</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F50" s="4" t="inlineStr">
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G50" s="4" t="inlineStr">
+      <c r="G50" s="3" t="inlineStr">
         <is>
           <t>福建省仙游县医院</t>
         </is>
       </c>
-      <c r="H50" s="4" t="n">
+      <c r="H50" s="3" t="n">
         <v>200</v>
       </c>
       <c r="I50" t="n">
         <v>1234</v>
       </c>
-      <c r="J50" s="6" t="n"/>
+      <c r="J50" s="5" t="n"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4181,43 +4187,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>2017-06-10</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G51" s="4" t="inlineStr">
+      <c r="G51" s="3" t="inlineStr">
         <is>
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="H51" s="4" t="n">
+      <c r="H51" s="3" t="n">
         <v>10000</v>
       </c>
       <c r="I51" t="n">
         <v>1234</v>
       </c>
-      <c r="J51" s="6" t="n"/>
+      <c r="J51" s="5" t="n"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4225,43 +4231,43 @@
           <t>惠好</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>2017-06-12</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>世福素(头孢克肟颗粒)</t>
         </is>
       </c>
-      <c r="D52" s="4" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>50mg*6袋</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F52" s="4" t="inlineStr">
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
         <is>
           <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
-      <c r="G52" s="4" t="inlineStr">
+      <c r="G52" s="3" t="inlineStr">
         <is>
           <t>莆田市荔城区安康药店</t>
         </is>
       </c>
-      <c r="H52" s="4" t="n">
+      <c r="H52" s="3" t="n">
         <v>10</v>
       </c>
       <c r="I52" t="n">
         <v>1234</v>
       </c>
-      <c r="J52" s="6" t="n"/>
+      <c r="J52" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4284,52 +4290,52 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>子公司</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>货品名称</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>货品规格</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>货品单位</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>生产厂家</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>客户名称</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>批号</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>效期</t>
         </is>
@@ -4374,7 +4380,7 @@
           <t>销售额（限价）</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>代理商</t>
         </is>
@@ -4386,6 +4392,253 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>要求名称</t>
+        </is>
+      </c>
+      <c r="B1" s="16" t="inlineStr">
+        <is>
+          <t>数据名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>仙游县郊尾镇卫生院</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>仙游县盖尾镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4605,7 +4858,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>莆田市第一医院</t>
+          <t>市一</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -4681,7 +4934,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>莆田学院附属医院</t>
+          <t>附属</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4757,7 +5010,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>莆田学院附属医院</t>
+          <t>附属</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -4833,7 +5086,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>莆田学院附属医院</t>
+          <t>附属</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -4985,7 +5238,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>莆田市第一医院</t>
+          <t>市一</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -5061,7 +5314,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>莆田市第一医院</t>
+          <t>市一</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -6021,13 +6274,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6036,46 +6289,100 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>鹭燕</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>2017-06-21</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>复方太子参颗粒</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>5g*10袋</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>福建省闽东力捷迅药业有限公司</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>福建省闽东力捷迅药业有限公司</t>
-        </is>
-      </c>
-      <c r="H1" t="n">
-        <v>900</v>
-      </c>
-      <c r="I1" t="n">
-        <v>1234</v>
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>子公司</t>
+        </is>
+      </c>
+      <c r="B1" s="16" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="16" t="inlineStr">
+        <is>
+          <t>货品名称</t>
+        </is>
+      </c>
+      <c r="D1" s="16" t="inlineStr">
+        <is>
+          <t>货品规格</t>
+        </is>
+      </c>
+      <c r="E1" s="16" t="inlineStr">
+        <is>
+          <t>货品单位</t>
+        </is>
+      </c>
+      <c r="F1" s="16" t="inlineStr">
+        <is>
+          <t>生产厂家</t>
+        </is>
+      </c>
+      <c r="G1" s="16" t="inlineStr">
+        <is>
+          <t>客户名称</t>
+        </is>
+      </c>
+      <c r="H1" s="16" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="I1" s="16" t="inlineStr">
+        <is>
+          <t>批号</t>
+        </is>
+      </c>
+      <c r="J1" s="16" t="inlineStr">
+        <is>
+          <t>效期</t>
+        </is>
+      </c>
+      <c r="K1" s="16" t="inlineStr">
+        <is>
+          <t>客户分类</t>
+        </is>
+      </c>
+      <c r="L1" s="16" t="inlineStr">
+        <is>
+          <t>负责人</t>
+        </is>
+      </c>
+      <c r="M1" s="16" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="N1" s="16" t="inlineStr">
+        <is>
+          <t>金额</t>
+        </is>
+      </c>
+      <c r="O1" s="16" t="inlineStr">
+        <is>
+          <t>报价</t>
+        </is>
+      </c>
+      <c r="P1" s="16" t="inlineStr">
+        <is>
+          <t>销售额（报价）</t>
+        </is>
+      </c>
+      <c r="Q1" s="16" t="inlineStr">
+        <is>
+          <t>限价</t>
+        </is>
+      </c>
+      <c r="R1" s="16" t="inlineStr">
+        <is>
+          <t>销售额（限价）</t>
+        </is>
+      </c>
+      <c r="S1" s="16" t="inlineStr">
+        <is>
+          <t>代理商</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -6086,7 +6393,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2017-06-26</t>
+          <t>2017-06-21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6111,11 +6418,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>莆田市荔城区中山大药房</t>
+          <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>900</v>
       </c>
       <c r="I2" t="n">
         <v>1234</v>
@@ -6129,17 +6436,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2017-06-07</t>
+          <t>2017-06-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>盐酸西替利嗪口服溶液</t>
+          <t>复方太子参颗粒</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10ml:10mg*5支</t>
+          <t>5g*10袋</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -6149,16 +6456,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>广州康臣药业有限公司</t>
+          <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>莆田市秀屿区医院</t>
+          <t>莆田市荔城区中山大药房</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>1234</v>
@@ -6172,7 +6479,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2017-06-12</t>
+          <t>2017-06-07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6197,11 +6504,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>广州康臣药业有限公司</t>
+          <t>莆田市秀屿区医院</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1080</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
         <v>1234</v>
@@ -6240,11 +6547,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>莆田市秀屿区医院</t>
+          <t>广州康臣药业有限公司</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>330</v>
+        <v>1080</v>
       </c>
       <c r="I5" t="n">
         <v>1234</v>
@@ -6258,17 +6565,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2017-06-02</t>
+          <t>2017-06-12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>复方蚂蚁胶囊</t>
+          <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.25g*36粒</t>
+          <t>10ml:10mg*5支</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -6278,16 +6585,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>福建延年药业有限公司</t>
+          <t>广州康臣药业有限公司</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>福建延年药业有限公司</t>
+          <t>莆田市秀屿区医院</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="I6" t="n">
         <v>1234</v>
@@ -6296,22 +6603,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>惠好</t>
+          <t>鹭燕</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2017-06-12</t>
+          <t>2017-06-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银杏蜜环口服溶液</t>
+          <t>复方蚂蚁胶囊</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10ml*12支</t>
+          <t>0.25g*36粒</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -6321,16 +6628,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>邛崃天银制药有限公司</t>
+          <t>福建延年药业有限公司</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>莆田市第一医院</t>
+          <t>福建延年药业有限公司</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1040</v>
+        <v>200</v>
       </c>
       <c r="I7" t="n">
         <v>1234</v>
@@ -6369,11 +6676,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>莆田市秀屿区南日镇卫生院</t>
+          <t>莆田市第一医院</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>1040</v>
       </c>
       <c r="I8" t="n">
         <v>1234</v>
@@ -6387,7 +6694,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2017-06-13</t>
+          <t>2017-06-12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6412,11 +6719,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>莆田市第一医院</t>
+          <t>莆田市秀屿区南日镇卫生院</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="I9" t="n">
         <v>1234</v>
@@ -6459,7 +6766,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="I10" t="n">
         <v>1234</v>
@@ -6502,7 +6809,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>873</v>
+        <v>167</v>
       </c>
       <c r="I11" t="n">
         <v>1234</v>
@@ -6545,7 +6852,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-167</v>
+        <v>873</v>
       </c>
       <c r="I12" t="n">
         <v>1234</v>
@@ -6588,7 +6895,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-108</v>
+        <v>-167</v>
       </c>
       <c r="I13" t="n">
         <v>1234</v>
@@ -6597,7 +6904,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>鹭燕</t>
+          <t>惠好</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -6631,7 +6938,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-873</v>
+        <v>-108</v>
       </c>
       <c r="I14" t="n">
         <v>1234</v>
@@ -6670,11 +6977,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>仙游县盖尾镇卫生院</t>
+          <t>莆田市第一医院</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>50</v>
+        <v>-873</v>
       </c>
       <c r="I15" t="n">
         <v>1234</v>
@@ -6731,17 +7038,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2017-06-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>世福素(头孢克肟颗粒)</t>
+          <t>银杏蜜环口服溶液</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>50mg*6袋</t>
+          <t>10ml*12支</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -6751,16 +7058,16 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
+          <t>邛崃天银制药有限公司</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>莆田市涵江区翁记药行</t>
+          <t>仙游县盖尾镇卫生院</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I17" t="n">
         <v>1234</v>
@@ -6774,7 +7081,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2017-06-02</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6799,11 +7106,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>莆田鹭燕大药房有限公司荔能店</t>
+          <t>莆田市涵江区翁记药行</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
         <v>1234</v>
@@ -6817,7 +7124,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2017-06-03</t>
+          <t>2017-06-02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6837,16 +7144,16 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>莆田学院附属医院</t>
+          <t>莆田鹭燕大药房有限公司荔能店</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>1234</v>
@@ -6860,7 +7167,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2017-06-05</t>
+          <t>2017-06-03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6880,16 +7187,16 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>莆田鹭燕大药房有限公司儿童医院店</t>
+          <t>莆田学院附属医院</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="I20" t="n">
         <v>1234</v>
@@ -6923,16 +7230,16 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>莆田市秀屿区益丰大药房有限公司</t>
+          <t>莆田鹭燕大药房有限公司儿童医院店</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
         <v>1234</v>
@@ -6946,7 +7253,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2017-06-06</t>
+          <t>2017-06-05</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6971,11 +7278,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>莆田市秀屿区医院</t>
+          <t>莆田市秀屿区益丰大药房有限公司</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
         <v>1234</v>
@@ -7095,16 +7402,16 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>莆田鹭燕大药房有限公司仙游店</t>
+          <t>莆田市秀屿区医院</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I25" t="n">
         <v>1234</v>
@@ -7118,7 +7425,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2017-06-08</t>
+          <t>2017-06-06</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7143,11 +7450,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>莆田市涵江区江口镇德信堂医药有限公司</t>
+          <t>莆田鹭燕大药房有限公司仙游店</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
         <v>1234</v>
@@ -7156,12 +7463,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>惠好</t>
+          <t>鹭燕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2017-06-10</t>
+          <t>2017-06-08</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7181,16 +7488,16 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>莆田市第一医院</t>
+          <t>莆田市涵江区江口镇德信堂医药有限公司</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="I27" t="n">
         <v>1234</v>
@@ -7365,6 +7672,49 @@
         <v>10</v>
       </c>
       <c r="I31" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>惠好</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2017-06-10</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>世福素(头孢克肟颗粒)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>50mg*6袋</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>莆田市第一医院</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>800</v>
+      </c>
+      <c r="I32" t="n">
         <v>1234</v>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="12671" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9564" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" state="visible" r:id="rId1"/>
@@ -49,14 +49,74 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -71,7 +131,23 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -85,32 +161,10 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
       <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,75 +177,21 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill/>
     </fill>
@@ -212,19 +212,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,19 +266,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,25 +284,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,66 +314,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,13 +326,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,19 +362,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,45 +443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -506,11 +473,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,25 +540,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -552,16 +558,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
@@ -570,119 +576,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -692,15 +698,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -716,10 +725,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1108,838 +1117,838 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
-    <col width="30" customWidth="1" style="6" min="1" max="1"/>
-    <col width="12.75" customWidth="1" style="6" min="2" max="2"/>
-    <col width="25.5" customWidth="1" style="6" min="3" max="3"/>
-    <col width="5" customWidth="1" style="6" min="4" max="4"/>
-    <col width="35.5" customWidth="1" style="6" min="5" max="5"/>
-    <col width="9" customWidth="1" style="6" min="6" max="10"/>
-    <col width="9" customWidth="1" style="7" min="11" max="11"/>
-    <col width="9" customWidth="1" style="6" min="12" max="16384"/>
+    <col width="30" customWidth="1" style="7" min="1" max="1"/>
+    <col width="12.75" customWidth="1" style="7" min="2" max="2"/>
+    <col width="25.5" customWidth="1" style="7" min="3" max="3"/>
+    <col width="5" customWidth="1" style="7" min="4" max="4"/>
+    <col width="35.5" customWidth="1" style="7" min="5" max="5"/>
+    <col width="9" customWidth="1" style="7" min="6" max="10"/>
+    <col width="9" customWidth="1" style="8" min="11" max="11"/>
+    <col width="9" customWidth="1" style="7" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>规格</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>厂家</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">单位 </t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>代理区域</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>客户分类</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="12" t="inlineStr">
         <is>
           <t>负责人</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="12" t="inlineStr">
         <is>
           <t>单价</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="12" t="inlineStr">
         <is>
           <t>报价</t>
         </is>
       </c>
-      <c r="J1" s="11" t="inlineStr">
+      <c r="J1" s="12" t="inlineStr">
         <is>
           <t>限价</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="8" t="inlineStr">
         <is>
           <t>代理商</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="13" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E2" s="13" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>秀屿</t>
         </is>
       </c>
-      <c r="G2" s="11" t="inlineStr">
+      <c r="G2" s="12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="11" t="n">
+      <c r="I2" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="11" t="n">
+      <c r="J2" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="inlineStr">
+      <c r="K2" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="13" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="13" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="D3" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
+      <c r="D3" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E3" s="13" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G3" s="11" t="inlineStr">
+      <c r="G3" s="12" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="11" t="n">
+      <c r="J3" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="7" t="inlineStr">
+      <c r="K3" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="A4" s="13" t="inlineStr">
         <is>
           <t>复方太子参颗粒</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
         <is>
           <t>5g*10袋</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>福建省闽东力捷迅药业有限公司</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E4" s="13" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>附属</t>
         </is>
       </c>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="G4" s="12" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="H4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="11" t="n">
+      <c r="J4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="7" t="inlineStr">
+      <c r="K4" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="13" t="inlineStr">
         <is>
           <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>10ml:10mg*5支</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr">
+      <c r="G5" s="12" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="K5" s="7" t="inlineStr">
+      <c r="K5" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="13" t="inlineStr">
         <is>
           <t>复方蚂蚁胶囊</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="13" t="inlineStr">
         <is>
           <t>0.25g*36粒</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="13" t="inlineStr">
         <is>
           <t>福建延年药业有限公司</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E6" s="14" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E6" s="15" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G6" s="11" t="inlineStr">
+      <c r="G6" s="12" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="K6" s="7" t="inlineStr">
+      <c r="K6" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
+      <c r="A7" s="13" t="inlineStr">
         <is>
           <t>生脉颗粒</t>
         </is>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="13" t="inlineStr">
         <is>
           <t>5g/袋*12袋/盒</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" s="13" t="inlineStr">
         <is>
           <t>河北百善药业有限公司</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E7" s="12" t="inlineStr">
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
         <is>
           <t>附属</t>
         </is>
       </c>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="G7" s="12" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="K7" s="7" t="inlineStr">
+      <c r="K7" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="inlineStr">
+      <c r="A8" s="13" t="inlineStr">
         <is>
           <t>奥美拉唑肠溶片</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>20mg*28s</t>
         </is>
       </c>
-      <c r="C8" s="12" t="inlineStr">
+      <c r="C8" s="13" t="inlineStr">
         <is>
           <t>北京太洋药业股份有限公司</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E8" s="14" t="inlineStr">
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
         <is>
           <t>莆田市第一医院</t>
         </is>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F8" s="12" t="inlineStr">
         <is>
           <t>市一</t>
         </is>
       </c>
-      <c r="G8" s="11" t="inlineStr">
+      <c r="G8" s="12" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="J8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="K8" s="7" t="inlineStr">
+      <c r="K8" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="inlineStr">
+      <c r="A9" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B9" s="12" t="inlineStr">
+      <c r="B9" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C9" s="12" t="inlineStr">
+      <c r="C9" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E9" s="14" t="inlineStr">
+      <c r="D9" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>莆田市涵江区涵东涵西街道社区卫生服务中心</t>
         </is>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F9" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G9" s="11" t="inlineStr">
+      <c r="G9" s="12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K9" s="7" t="inlineStr">
+      <c r="K9" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="inlineStr">
+      <c r="A10" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C10" s="12" t="inlineStr">
+      <c r="C10" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E10" s="14" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>莆田市秀屿区东庄镇卫生院</t>
         </is>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F10" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G10" s="11" t="inlineStr">
+      <c r="G10" s="12" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J10" s="11" t="n">
+      <c r="J10" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K10" s="7" t="inlineStr">
+      <c r="K10" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="inlineStr">
+      <c r="A11" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B11" s="12" t="inlineStr">
+      <c r="B11" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C11" s="12" t="inlineStr">
+      <c r="C11" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D11" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E11" s="14" t="inlineStr">
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
         <is>
           <t>莆田市秀屿区平海镇卫生院</t>
         </is>
       </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="F11" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G11" s="11" t="inlineStr">
+      <c r="G11" s="12" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K11" s="7" t="inlineStr">
+      <c r="K11" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="inlineStr">
+      <c r="A12" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B12" s="12" t="inlineStr">
+      <c r="B12" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C12" s="12" t="inlineStr">
+      <c r="C12" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E12" s="14" t="inlineStr">
+      <c r="D12" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>仙游县郊尾镇卫生院</t>
         </is>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G12" s="11" t="inlineStr">
+      <c r="G12" s="12" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="H12" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J12" s="11" t="n">
+      <c r="J12" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K12" s="7" t="inlineStr">
+      <c r="K12" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="inlineStr">
+      <c r="A13" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="B13" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C13" s="12" t="inlineStr">
+      <c r="C13" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E13" s="14" t="inlineStr">
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
         <is>
           <t>仙游县鲤南镇卫生院</t>
         </is>
       </c>
-      <c r="F13" s="11" t="inlineStr">
+      <c r="F13" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G13" s="11" t="inlineStr">
+      <c r="G13" s="12" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K13" s="7" t="inlineStr">
+      <c r="K13" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="inlineStr">
+      <c r="A14" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="B14" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C14" s="12" t="inlineStr">
+      <c r="C14" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E14" s="14" t="inlineStr">
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>仙游县大济镇卫生院</t>
         </is>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F14" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G14" s="11" t="inlineStr">
+      <c r="G14" s="12" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="I14" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J14" s="11" t="n">
+      <c r="J14" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K14" s="7" t="inlineStr">
+      <c r="K14" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="inlineStr">
+      <c r="A15" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B15" s="12" t="inlineStr">
+      <c r="B15" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C15" s="12" t="inlineStr">
+      <c r="C15" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D15" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E15" s="14" t="inlineStr">
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>莆田市湄洲湾北岸经济开发区忠门镇中心卫生院</t>
         </is>
       </c>
-      <c r="F15" s="11" t="inlineStr">
+      <c r="F15" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G15" s="11" t="inlineStr">
+      <c r="G15" s="12" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="7" t="inlineStr">
+      <c r="K15" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="inlineStr">
+      <c r="A16" s="13" t="inlineStr">
         <is>
           <t>银杏蜜环口服溶液</t>
         </is>
       </c>
-      <c r="B16" s="12" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>10ml*12支</t>
         </is>
       </c>
-      <c r="C16" s="12" t="inlineStr">
+      <c r="C16" s="13" t="inlineStr">
         <is>
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
-        <is>
-          <t>盒</t>
-        </is>
-      </c>
-      <c r="E16" s="14" t="inlineStr">
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E16" s="15" t="inlineStr">
         <is>
           <t>莆田学院附属医院湄洲岛分院</t>
         </is>
       </c>
-      <c r="F16" s="11" t="inlineStr">
+      <c r="F16" s="12" t="inlineStr">
         <is>
           <t>基层</t>
         </is>
       </c>
-      <c r="G16" s="11" t="inlineStr">
+      <c r="G16" s="12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I16" s="11" t="n">
+      <c r="I16" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J16" s="11" t="n">
+      <c r="J16" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K16" s="7" t="inlineStr">
+      <c r="K16" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1959,8 +1968,8 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="0"/>
@@ -2038,7 +2047,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>复方太子参颗粒</t>
+          <t>复方太子参颗粒2</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -2067,7 +2076,7 @@
       <c r="I2" t="n">
         <v>1234</v>
       </c>
-      <c r="J2" s="5" t="n"/>
+      <c r="J2" s="6" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2087,7 +2096,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>5g*10袋</t>
+          <t>5g*10袋1</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -2111,7 +2120,7 @@
       <c r="I3" t="n">
         <v>1234</v>
       </c>
-      <c r="J3" s="5" t="n"/>
+      <c r="J3" s="6" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2155,7 +2164,7 @@
       <c r="I4" t="n">
         <v>1234</v>
       </c>
-      <c r="J4" s="5" t="n"/>
+      <c r="J4" s="6" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2199,7 +2208,7 @@
       <c r="I5" t="n">
         <v>1234</v>
       </c>
-      <c r="J5" s="5" t="n"/>
+      <c r="J5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2243,7 +2252,7 @@
       <c r="I6" t="n">
         <v>1234</v>
       </c>
-      <c r="J6" s="5" t="n"/>
+      <c r="J6" s="6" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2287,7 +2296,7 @@
       <c r="I7" t="n">
         <v>1234</v>
       </c>
-      <c r="J7" s="5" t="n"/>
+      <c r="J7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2331,7 +2340,7 @@
       <c r="I8" t="n">
         <v>1234</v>
       </c>
-      <c r="J8" s="5" t="n"/>
+      <c r="J8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2375,7 +2384,7 @@
       <c r="I9" t="n">
         <v>1234</v>
       </c>
-      <c r="J9" s="5" t="n"/>
+      <c r="J9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2419,7 +2428,7 @@
       <c r="I10" t="n">
         <v>1234</v>
       </c>
-      <c r="J10" s="5" t="n"/>
+      <c r="J10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2452,7 +2461,7 @@
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="G11" s="15" t="inlineStr">
+      <c r="G11" s="16" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
@@ -2463,7 +2472,7 @@
       <c r="I11" t="n">
         <v>1234</v>
       </c>
-      <c r="J11" s="5" t="n"/>
+      <c r="J11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2507,7 +2516,7 @@
       <c r="I12" t="n">
         <v>1234</v>
       </c>
-      <c r="J12" s="5" t="n"/>
+      <c r="J12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2540,7 +2549,7 @@
           <t>广州康臣药业有限公司</t>
         </is>
       </c>
-      <c r="G13" s="15" t="inlineStr">
+      <c r="G13" s="16" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
@@ -2551,7 +2560,7 @@
       <c r="I13" t="n">
         <v>1234</v>
       </c>
-      <c r="J13" s="5" t="n"/>
+      <c r="J13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2595,7 +2604,7 @@
       <c r="I14" t="n">
         <v>1234</v>
       </c>
-      <c r="J14" s="5" t="n"/>
+      <c r="J14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2639,7 +2648,7 @@
       <c r="I15" t="n">
         <v>1234</v>
       </c>
-      <c r="J15" s="5" t="n"/>
+      <c r="J15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2683,7 +2692,7 @@
       <c r="I16" t="n">
         <v>1234</v>
       </c>
-      <c r="J16" s="5" t="n"/>
+      <c r="J16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2727,7 +2736,7 @@
       <c r="I17" t="n">
         <v>1234</v>
       </c>
-      <c r="J17" s="5" t="n"/>
+      <c r="J17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2760,7 +2769,7 @@
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G18" s="15" t="inlineStr">
+      <c r="G18" s="16" t="inlineStr">
         <is>
           <t>莆田市秀屿区东庄镇卫生院</t>
         </is>
@@ -2771,7 +2780,7 @@
       <c r="I18" t="n">
         <v>1234</v>
       </c>
-      <c r="J18" s="5" t="n"/>
+      <c r="J18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2804,7 +2813,7 @@
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G19" s="15" t="inlineStr">
+      <c r="G19" s="16" t="inlineStr">
         <is>
           <t>莆田市秀屿区平海镇卫生院</t>
         </is>
@@ -2815,7 +2824,7 @@
       <c r="I19" t="n">
         <v>1234</v>
       </c>
-      <c r="J19" s="5" t="n"/>
+      <c r="J19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2859,7 +2868,7 @@
       <c r="I20" t="n">
         <v>1234</v>
       </c>
-      <c r="J20" s="5" t="n"/>
+      <c r="J20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2892,7 +2901,7 @@
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G21" s="15" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>仙游县鲤南镇卫生院</t>
         </is>
@@ -2903,7 +2912,7 @@
       <c r="I21" t="n">
         <v>1234</v>
       </c>
-      <c r="J21" s="5" t="n"/>
+      <c r="J21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2936,7 +2945,7 @@
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G22" s="15" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>仙游县大济镇卫生院</t>
         </is>
@@ -2947,7 +2956,7 @@
       <c r="I22" t="n">
         <v>1234</v>
       </c>
-      <c r="J22" s="5" t="n"/>
+      <c r="J22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2991,7 +3000,7 @@
       <c r="I23" t="n">
         <v>1234</v>
       </c>
-      <c r="J23" s="5" t="n"/>
+      <c r="J23" s="6" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3024,7 +3033,7 @@
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G24" s="15" t="inlineStr">
+      <c r="G24" s="16" t="inlineStr">
         <is>
           <t>莆田学院附属医院湄洲岛分院</t>
         </is>
@@ -3035,7 +3044,7 @@
       <c r="I24" t="n">
         <v>1234</v>
       </c>
-      <c r="J24" s="5" t="n"/>
+      <c r="J24" s="6" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3079,7 +3088,7 @@
       <c r="I25" t="n">
         <v>1234</v>
       </c>
-      <c r="J25" s="5" t="n"/>
+      <c r="J25" s="6" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3112,7 +3121,7 @@
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G26" s="15" t="inlineStr">
+      <c r="G26" s="16" t="inlineStr">
         <is>
           <t>莆田市秀屿区南日镇卫生院</t>
         </is>
@@ -3123,7 +3132,7 @@
       <c r="I26" t="n">
         <v>1234</v>
       </c>
-      <c r="J26" s="5" t="n"/>
+      <c r="J26" s="6" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3167,7 +3176,7 @@
       <c r="I27" t="n">
         <v>1234</v>
       </c>
-      <c r="J27" s="5" t="n"/>
+      <c r="J27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3211,7 +3220,7 @@
       <c r="I28" t="n">
         <v>1234</v>
       </c>
-      <c r="J28" s="5" t="n"/>
+      <c r="J28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3255,7 +3264,7 @@
       <c r="I29" t="n">
         <v>1234</v>
       </c>
-      <c r="J29" s="5" t="n"/>
+      <c r="J29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3299,7 +3308,7 @@
       <c r="I30" t="n">
         <v>1234</v>
       </c>
-      <c r="J30" s="5" t="n"/>
+      <c r="J30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3343,7 +3352,7 @@
       <c r="I31" t="n">
         <v>1234</v>
       </c>
-      <c r="J31" s="5" t="n"/>
+      <c r="J31" s="6" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3387,7 +3396,7 @@
       <c r="I32" t="n">
         <v>1234</v>
       </c>
-      <c r="J32" s="5" t="n"/>
+      <c r="J32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3420,7 +3429,7 @@
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G33" s="15" t="inlineStr">
+      <c r="G33" s="16" t="inlineStr">
         <is>
           <t>仙游县盖尾镇卫生院</t>
         </is>
@@ -3431,7 +3440,7 @@
       <c r="I33" t="n">
         <v>1234</v>
       </c>
-      <c r="J33" s="5" t="n"/>
+      <c r="J33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3475,7 +3484,7 @@
       <c r="I34" t="n">
         <v>1234</v>
       </c>
-      <c r="J34" s="5" t="n"/>
+      <c r="J34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3508,7 +3517,7 @@
           <t>邛崃天银制药有限公司</t>
         </is>
       </c>
-      <c r="G35" s="15" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>仙游县大济镇卫生院</t>
         </is>
@@ -3519,7 +3528,7 @@
       <c r="I35" t="n">
         <v>1234</v>
       </c>
-      <c r="J35" s="5" t="n"/>
+      <c r="J35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3563,7 +3572,7 @@
       <c r="I36" t="n">
         <v>1234</v>
       </c>
-      <c r="J36" s="5" t="n"/>
+      <c r="J36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3607,7 +3616,7 @@
       <c r="I37" t="n">
         <v>1234</v>
       </c>
-      <c r="J37" s="5" t="n"/>
+      <c r="J37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3651,7 +3660,7 @@
       <c r="I38" t="n">
         <v>1234</v>
       </c>
-      <c r="J38" s="5" t="n"/>
+      <c r="J38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3695,7 +3704,7 @@
       <c r="I39" t="n">
         <v>1234</v>
       </c>
-      <c r="J39" s="5" t="n"/>
+      <c r="J39" s="6" t="n"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3728,7 +3737,7 @@
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G40" s="15" t="inlineStr">
+      <c r="G40" s="16" t="inlineStr">
         <is>
           <t>莆田学院附属医院</t>
         </is>
@@ -3739,7 +3748,7 @@
       <c r="I40" t="n">
         <v>1234</v>
       </c>
-      <c r="J40" s="5" t="n"/>
+      <c r="J40" s="6" t="n"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3783,7 +3792,7 @@
       <c r="I41" t="n">
         <v>1234</v>
       </c>
-      <c r="J41" s="5" t="n"/>
+      <c r="J41" s="6" t="n"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3827,7 +3836,7 @@
       <c r="I42" t="n">
         <v>1234</v>
       </c>
-      <c r="J42" s="5" t="n"/>
+      <c r="J42" s="6" t="n"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3860,7 +3869,7 @@
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G43" s="15" t="inlineStr">
+      <c r="G43" s="16" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
@@ -3871,7 +3880,7 @@
       <c r="I43" t="n">
         <v>1234</v>
       </c>
-      <c r="J43" s="5" t="n"/>
+      <c r="J43" s="6" t="n"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3915,7 +3924,7 @@
       <c r="I44" t="n">
         <v>1234</v>
       </c>
-      <c r="J44" s="5" t="n"/>
+      <c r="J44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3948,7 +3957,7 @@
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G45" s="15" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>仙游县鲤南镇卫生院</t>
         </is>
@@ -3959,7 +3968,7 @@
       <c r="I45" t="n">
         <v>1234</v>
       </c>
-      <c r="J45" s="5" t="n"/>
+      <c r="J45" s="6" t="n"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4003,7 +4012,7 @@
       <c r="I46" t="n">
         <v>1234</v>
       </c>
-      <c r="J46" s="5" t="n"/>
+      <c r="J46" s="6" t="n"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4047,7 +4056,7 @@
       <c r="I47" t="n">
         <v>1234</v>
       </c>
-      <c r="J47" s="5" t="n"/>
+      <c r="J47" s="6" t="n"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4091,7 +4100,7 @@
       <c r="I48" t="n">
         <v>1234</v>
       </c>
-      <c r="J48" s="5" t="n"/>
+      <c r="J48" s="6" t="n"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4124,7 +4133,7 @@
           <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
-      <c r="G49" s="15" t="inlineStr">
+      <c r="G49" s="16" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
@@ -4135,7 +4144,7 @@
       <c r="I49" t="n">
         <v>1234</v>
       </c>
-      <c r="J49" s="5" t="n"/>
+      <c r="J49" s="6" t="n"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4179,7 +4188,7 @@
       <c r="I50" t="n">
         <v>1234</v>
       </c>
-      <c r="J50" s="5" t="n"/>
+      <c r="J50" s="6" t="n"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4223,7 +4232,7 @@
       <c r="I51" t="n">
         <v>1234</v>
       </c>
-      <c r="J51" s="5" t="n"/>
+      <c r="J51" s="6" t="n"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4267,7 +4276,7 @@
       <c r="I52" t="n">
         <v>1234</v>
       </c>
-      <c r="J52" s="5" t="n"/>
+      <c r="J52" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4403,15 +4412,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>要求名称</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>数据名称</t>
         </is>
@@ -4653,97 +4662,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="inlineStr">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>子公司</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>货品名称</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="17" t="inlineStr">
         <is>
           <t>货品规格</t>
         </is>
       </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="E1" s="17" t="inlineStr">
         <is>
           <t>货品单位</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>生产厂家</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>客户名称</t>
         </is>
       </c>
-      <c r="H1" s="16" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="I1" s="16" t="inlineStr">
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>批号</t>
         </is>
       </c>
-      <c r="J1" s="16" t="inlineStr">
+      <c r="J1" s="17" t="inlineStr">
         <is>
           <t>效期</t>
         </is>
       </c>
-      <c r="K1" s="16" t="inlineStr">
+      <c r="K1" s="17" t="inlineStr">
         <is>
           <t>客户分类</t>
         </is>
       </c>
-      <c r="L1" s="16" t="inlineStr">
+      <c r="L1" s="17" t="inlineStr">
         <is>
           <t>负责人</t>
         </is>
       </c>
-      <c r="M1" s="16" t="inlineStr">
+      <c r="M1" s="17" t="inlineStr">
         <is>
           <t>单价</t>
         </is>
       </c>
-      <c r="N1" s="16" t="inlineStr">
+      <c r="N1" s="17" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="O1" s="16" t="inlineStr">
+      <c r="O1" s="17" t="inlineStr">
         <is>
           <t>报价</t>
         </is>
       </c>
-      <c r="P1" s="16" t="inlineStr">
+      <c r="P1" s="17" t="inlineStr">
         <is>
           <t>销售额（报价）</t>
         </is>
       </c>
-      <c r="Q1" s="16" t="inlineStr">
+      <c r="Q1" s="17" t="inlineStr">
         <is>
           <t>限价</t>
         </is>
       </c>
-      <c r="R1" s="16" t="inlineStr">
+      <c r="R1" s="17" t="inlineStr">
         <is>
           <t>销售额（限价）</t>
         </is>
       </c>
-      <c r="S1" s="16" t="inlineStr">
+      <c r="S1" s="17" t="inlineStr">
         <is>
           <t>代理商</t>
         </is>
@@ -5588,12 +5597,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>鹭燕</t>
+          <t>惠好</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2017-06-05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5618,11 +5627,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>莆田市秀屿区平海镇卫生院</t>
+          <t>仙游县郊尾镇卫生院</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I13" t="n">
         <v>1234</v>
@@ -5634,26 +5643,26 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>8</v>
       </c>
       <c r="N13" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="O13" t="n">
         <v>7</v>
       </c>
       <c r="P13" t="n">
-        <v>1400</v>
+        <v>140</v>
       </c>
       <c r="Q13" t="n">
         <v>8</v>
       </c>
       <c r="R13" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -5669,7 +5678,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2017-06-05</t>
+          <t>2017-06-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5694,11 +5703,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>仙游县郊尾镇卫生院</t>
+          <t>仙游县鲤南镇卫生院</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I14" t="n">
         <v>1234</v>
@@ -5710,26 +5719,26 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>8</v>
       </c>
       <c r="N14" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="O14" t="n">
         <v>7</v>
       </c>
       <c r="P14" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="Q14" t="n">
         <v>8</v>
       </c>
       <c r="R14" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -5740,12 +5749,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>惠好</t>
+          <t>鹭燕</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2017-06-06</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5770,11 +5779,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>仙游县鲤南镇卫生院</t>
+          <t>莆田市秀屿区平海镇卫生院</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I15" t="n">
         <v>1234</v>
@@ -5786,26 +5795,26 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>8</v>
       </c>
       <c r="N15" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="O15" t="n">
         <v>7</v>
       </c>
       <c r="P15" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="Q15" t="n">
         <v>8</v>
       </c>
       <c r="R15" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -6289,97 +6298,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="inlineStr">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>子公司</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>货品名称</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="17" t="inlineStr">
         <is>
           <t>货品规格</t>
         </is>
       </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="E1" s="17" t="inlineStr">
         <is>
           <t>货品单位</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>生产厂家</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>客户名称</t>
         </is>
       </c>
-      <c r="H1" s="16" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="I1" s="16" t="inlineStr">
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>批号</t>
         </is>
       </c>
-      <c r="J1" s="16" t="inlineStr">
+      <c r="J1" s="17" t="inlineStr">
         <is>
           <t>效期</t>
         </is>
       </c>
-      <c r="K1" s="16" t="inlineStr">
+      <c r="K1" s="17" t="inlineStr">
         <is>
           <t>客户分类</t>
         </is>
       </c>
-      <c r="L1" s="16" t="inlineStr">
+      <c r="L1" s="17" t="inlineStr">
         <is>
           <t>负责人</t>
         </is>
       </c>
-      <c r="M1" s="16" t="inlineStr">
+      <c r="M1" s="17" t="inlineStr">
         <is>
           <t>单价</t>
         </is>
       </c>
-      <c r="N1" s="16" t="inlineStr">
+      <c r="N1" s="17" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="O1" s="16" t="inlineStr">
+      <c r="O1" s="17" t="inlineStr">
         <is>
           <t>报价</t>
         </is>
       </c>
-      <c r="P1" s="16" t="inlineStr">
+      <c r="P1" s="17" t="inlineStr">
         <is>
           <t>销售额（报价）</t>
         </is>
       </c>
-      <c r="Q1" s="16" t="inlineStr">
+      <c r="Q1" s="17" t="inlineStr">
         <is>
           <t>限价</t>
         </is>
       </c>
-      <c r="R1" s="16" t="inlineStr">
+      <c r="R1" s="17" t="inlineStr">
         <is>
           <t>销售额（限价）</t>
         </is>
       </c>
-      <c r="S1" s="16" t="inlineStr">
+      <c r="S1" s="17" t="inlineStr">
         <is>
           <t>代理商</t>
         </is>
@@ -6565,17 +6574,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2017-06-12</t>
+          <t>2017-06-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>盐酸西替利嗪口服溶液</t>
+          <t>复方蚂蚁胶囊</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10ml:10mg*5支</t>
+          <t>0.25g*36粒</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -6585,16 +6594,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>广州康臣药业有限公司</t>
+          <t>福建延年药业有限公司</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>莆田市秀屿区医院</t>
+          <t>福建延年药业有限公司</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="I6" t="n">
         <v>1234</v>
@@ -6608,17 +6617,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2017-06-02</t>
+          <t>2017-06-12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>复方蚂蚁胶囊</t>
+          <t>盐酸西替利嗪口服溶液</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.25g*36粒</t>
+          <t>10ml:10mg*5支</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -6628,16 +6637,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>福建延年药业有限公司</t>
+          <t>广州康臣药业有限公司</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>福建延年药业有限公司</t>
+          <t>莆田市秀屿区医院</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="I7" t="n">
         <v>1234</v>
@@ -6694,7 +6703,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2017-06-12</t>
+          <t>2017-06-13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6719,11 +6728,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>莆田市秀屿区南日镇卫生院</t>
+          <t>莆田市第一医院</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="I9" t="n">
         <v>1234</v>
@@ -6766,7 +6775,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="I10" t="n">
         <v>1234</v>
@@ -6809,7 +6818,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>167</v>
+        <v>873</v>
       </c>
       <c r="I11" t="n">
         <v>1234</v>
@@ -6852,7 +6861,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>873</v>
+        <v>-167</v>
       </c>
       <c r="I12" t="n">
         <v>1234</v>
@@ -6895,7 +6904,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-167</v>
+        <v>-108</v>
       </c>
       <c r="I13" t="n">
         <v>1234</v>
@@ -6904,7 +6913,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>惠好</t>
+          <t>鹭燕</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -6938,7 +6947,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-108</v>
+        <v>-873</v>
       </c>
       <c r="I14" t="n">
         <v>1234</v>
@@ -6947,12 +6956,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>鹭燕</t>
+          <t>惠好</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2017-06-13</t>
+          <t>2017-06-12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6977,11 +6986,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>莆田市第一医院</t>
+          <t>莆田市秀屿区南日镇卫生院</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-873</v>
+        <v>50</v>
       </c>
       <c r="I15" t="n">
         <v>1234</v>
@@ -7402,16 +7411,16 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>莆田市秀屿区医院</t>
+          <t>莆田鹭燕大药房有限公司仙游店</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
         <v>1234</v>
@@ -7425,7 +7434,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2017-06-06</t>
+          <t>2017-06-08</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7450,11 +7459,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>莆田鹭燕大药房有限公司仙游店</t>
+          <t>莆田市涵江区江口镇德信堂医药有限公司</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I26" t="n">
         <v>1234</v>
@@ -7463,12 +7472,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>鹭燕</t>
+          <t>惠好</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2017-06-08</t>
+          <t>2017-06-10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7488,16 +7497,16 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>莆田市涵江区江口镇德信堂医药有限公司</t>
+          <t>莆田市第一医院</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="I27" t="n">
         <v>1234</v>
@@ -7536,11 +7545,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>莆田市秀屿区医院</t>
+          <t>福建省仙游县医院</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I28" t="n">
         <v>1234</v>
@@ -7549,12 +7558,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>惠好</t>
+          <t>鹭燕</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2017-06-10</t>
+          <t>2017-06-06</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7579,11 +7588,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>福建省仙游县医院</t>
+          <t>莆田市秀屿区医院</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I29" t="n">
         <v>1234</v>
@@ -7622,11 +7631,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+          <t>莆田市秀屿区医院</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="I30" t="n">
         <v>1234</v>
@@ -7640,7 +7649,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2017-06-12</t>
+          <t>2017-06-10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7660,16 +7669,16 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>莆田市荔城区安康药店</t>
+          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="I31" t="n">
         <v>1234</v>
@@ -7683,7 +7692,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2017-06-10</t>
+          <t>2017-06-12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7703,16 +7712,16 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>广州白云山医药集团股份有限公司白云山制药总厂</t>
+          <t>广州白云山制药股份有限公司广州白云山制药总厂</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>莆田市第一医院</t>
+          <t>莆田市荔城区安康药店</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
         <v>1234</v>
